--- a/BackTest/2020-01-15 BackTest FX.xlsx
+++ b/BackTest/2020-01-15 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-244501.5788664063</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-271224.3833664063</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-305390.2810664063</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,22 +2992,15 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3270,250 +3027,223 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3823.4195</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>976.7001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>21117.9462</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F85" t="n">
+        <v>450</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-406657.6602664062</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7171.0056</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-406657.6602664062</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J86" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3823.4195</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>976.7001</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>21117.9462</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>20</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F85" t="n">
-        <v>450</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F86" t="n">
-        <v>7171.0056</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,26 +3268,23 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>62.02</v>
       </c>
       <c r="J87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3582,26 +3309,23 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>62.02</v>
       </c>
       <c r="J88" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K88" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3626,26 +3350,21 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>62.3</v>
       </c>
-      <c r="K89" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3670,26 +3389,21 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>62.3</v>
       </c>
-      <c r="K90" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3714,26 +3428,21 @@
         <v>-407684.2408664062</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>62.3</v>
       </c>
-      <c r="K91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3758,26 +3467,21 @@
         <v>-418588.5654664062</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3802,26 +3506,23 @@
         <v>-418579.5654664062</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>62.01</v>
       </c>
       <c r="J93" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="K93" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3846,26 +3547,23 @@
         <v>-418570.6663664062</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="J94" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L94" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3892,24 +3590,19 @@
       <c r="H95" t="n">
         <v>1</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K95" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3934,26 +3627,23 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="J96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3978,26 +3668,21 @@
         <v>-421373.9444664062</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>62.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,24 +3707,21 @@
         <v>-420648.0588664062</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4064,24 +3746,21 @@
         <v>-420629.0127664062</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4106,570 +3785,561 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0.9980497592295346</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6386</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4169.6841</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="J102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4993.0293</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-429942.0420664062</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="J103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C104" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F104" t="n">
+        <v>453.0451</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-429488.9969664062</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5860.7743</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-435349.7712664062</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>62.49</v>
       </c>
-      <c r="C101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6386</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>63</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>63</v>
+      </c>
+      <c r="E106" t="n">
+        <v>63</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.9366</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-435341.8346664062</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
         <v>62.49</v>
       </c>
-      <c r="C102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4169.6841</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>63</v>
+      </c>
+      <c r="C107" t="n">
+        <v>63</v>
+      </c>
+      <c r="D107" t="n">
+        <v>63</v>
+      </c>
+      <c r="E107" t="n">
+        <v>63</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5220.8177</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-435341.8346664062</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
         <v>62.49</v>
       </c>
-      <c r="C103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4993.0293</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-429942.0420664062</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>63</v>
+      </c>
+      <c r="C108" t="n">
+        <v>63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>63</v>
+      </c>
+      <c r="E108" t="n">
+        <v>63</v>
+      </c>
+      <c r="F108" t="n">
+        <v>79.3651</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-435341.8346664062</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
         <v>62.49</v>
       </c>
-      <c r="C104" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F104" t="n">
-        <v>453.0451</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-429488.9969664062</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5860.7743</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-435349.7712664062</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="C109" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="D109" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="E109" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="F109" t="n">
+        <v>276</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-435617.8346664062</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>63</v>
-      </c>
-      <c r="C106" t="n">
-        <v>63</v>
-      </c>
-      <c r="D106" t="n">
-        <v>63</v>
-      </c>
-      <c r="E106" t="n">
-        <v>63</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7.9366</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>63</v>
+      </c>
+      <c r="C110" t="n">
+        <v>63</v>
+      </c>
+      <c r="D110" t="n">
+        <v>63</v>
+      </c>
+      <c r="E110" t="n">
+        <v>63</v>
+      </c>
+      <c r="F110" t="n">
+        <v>395.6984</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-435222.1362664062</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>63</v>
-      </c>
-      <c r="C107" t="n">
-        <v>63</v>
-      </c>
-      <c r="D107" t="n">
-        <v>63</v>
-      </c>
-      <c r="E107" t="n">
-        <v>63</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5220.8177</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>63</v>
+      </c>
+      <c r="C111" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="D111" t="n">
+        <v>63</v>
+      </c>
+      <c r="E111" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7758.5704</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-442980.7066664062</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="C112" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="D112" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="E112" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2379.9715</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-442980.7066664062</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>63</v>
+      </c>
+      <c r="C113" t="n">
+        <v>63</v>
+      </c>
+      <c r="D113" t="n">
+        <v>63</v>
+      </c>
+      <c r="E113" t="n">
+        <v>63</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-442972.7066664062</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>63</v>
+      </c>
+      <c r="D114" t="n">
+        <v>63</v>
+      </c>
+      <c r="E114" t="n">
+        <v>63</v>
+      </c>
+      <c r="F114" t="n">
+        <v>55.5562</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-442972.7066664062</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1.010801354401806</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>63</v>
-      </c>
-      <c r="C108" t="n">
-        <v>63</v>
-      </c>
-      <c r="D108" t="n">
-        <v>63</v>
-      </c>
-      <c r="E108" t="n">
-        <v>63</v>
-      </c>
-      <c r="F108" t="n">
-        <v>79.3651</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="C109" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="D109" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="E109" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="F109" t="n">
-        <v>276</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-435617.8346664062</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>63</v>
-      </c>
-      <c r="C110" t="n">
-        <v>63</v>
-      </c>
-      <c r="D110" t="n">
-        <v>63</v>
-      </c>
-      <c r="E110" t="n">
-        <v>63</v>
-      </c>
-      <c r="F110" t="n">
-        <v>395.6984</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-435222.1362664062</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>63</v>
-      </c>
-      <c r="C111" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="D111" t="n">
-        <v>63</v>
-      </c>
-      <c r="E111" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="F111" t="n">
-        <v>7758.5704</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-442980.7066664062</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="C112" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="D112" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="E112" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2379.9715</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-442980.7066664062</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>63</v>
-      </c>
-      <c r="C113" t="n">
-        <v>63</v>
-      </c>
-      <c r="D113" t="n">
-        <v>63</v>
-      </c>
-      <c r="E113" t="n">
-        <v>63</v>
-      </c>
-      <c r="F113" t="n">
-        <v>8</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-442972.7066664062</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>63</v>
-      </c>
-      <c r="C114" t="n">
-        <v>63</v>
-      </c>
-      <c r="D114" t="n">
-        <v>63</v>
-      </c>
-      <c r="E114" t="n">
-        <v>63</v>
-      </c>
-      <c r="F114" t="n">
-        <v>55.5562</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-442972.7066664062</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1.003161305808929</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4694,18 +4364,15 @@
         <v>-446875.1570664062</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4730,18 +4397,15 @@
         <v>-442867.2078664062</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4768,16 +4432,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4804,16 +4465,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4840,18 +4498,15 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FX.xlsx
+++ b/BackTest/2020-01-15 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-229095.7509664063</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-244501.5788664063</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-270875.0896664063</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-271224.3833664063</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-305390.2810664063</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-305722.0382664063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2926,10 +2926,14 @@
         <v>-406778.3280664062</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="J77" t="n">
+        <v>62.07</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2959,11 +2963,19 @@
         <v>-406769.3280664062</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="J78" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3004,19 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,10 +3045,14 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>62.3</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3058,11 +3082,19 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3093,9 +3125,17 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,10 +3164,14 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>62.3</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3160,8 +3204,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,7 +3240,7 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>62.3</v>
@@ -3198,7 +3248,11 @@
       <c r="J85" t="n">
         <v>62.3</v>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,19 +3281,15 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>62.02</v>
       </c>
       <c r="J86" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>62.02</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3268,13 +3318,13 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>62.02</v>
       </c>
       <c r="J87" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3309,13 +3359,13 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>62.02</v>
       </c>
       <c r="J88" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3350,11 +3400,13 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>62.3</v>
+      </c>
       <c r="J89" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3393,7 +3445,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3428,11 +3480,13 @@
         <v>-407684.2408664062</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>62.3</v>
+      </c>
       <c r="J91" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3467,11 +3521,13 @@
         <v>-418588.5654664062</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>62.02</v>
+      </c>
       <c r="J92" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3506,13 +3562,13 @@
         <v>-418579.5654664062</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>62.01</v>
       </c>
       <c r="J93" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3547,13 +3603,13 @@
         <v>-418570.6663664062</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>62.1</v>
       </c>
       <c r="J94" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3588,11 +3644,11 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3627,13 +3683,13 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>62.1</v>
       </c>
       <c r="J96" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3668,11 +3724,13 @@
         <v>-421373.9444664062</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>62.1</v>
+      </c>
       <c r="J97" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3709,9 +3767,11 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>62.49</v>
+      </c>
       <c r="J98" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3748,9 +3808,11 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>62.5</v>
+      </c>
       <c r="J99" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3785,19 +3847,19 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>62.3</v>
+        <v>62.02</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.9980497592295346</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -3827,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3857,15 +3925,17 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>62.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+        <v>62.02</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3894,17 +3964,17 @@
         <v>-429942.0420664062</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>62.49</v>
       </c>
       <c r="J103" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3935,11 +4005,13 @@
         <v>-429488.9969664062</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>62.2</v>
+      </c>
       <c r="J104" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3978,7 +4050,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4013,11 +4085,13 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>62.2</v>
+      </c>
       <c r="J106" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4054,9 +4128,11 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>63</v>
+      </c>
       <c r="J107" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4091,11 +4167,11 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4130,11 +4206,11 @@
         <v>-435617.8346664062</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4173,7 +4249,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4208,11 +4284,11 @@
         <v>-442980.7066664062</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4247,11 +4323,11 @@
         <v>-442980.7066664062</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4286,11 +4362,13 @@
         <v>-442972.7066664062</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>62.21</v>
+      </c>
       <c r="J113" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4325,19 +4403,21 @@
         <v>-442972.7066664062</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>63</v>
+      </c>
       <c r="J114" t="n">
-        <v>62.49</v>
+        <v>62.02</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.003161305808929</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
     </row>
@@ -4364,11 +4444,17 @@
         <v>-446875.1570664062</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4483,17 @@
         <v>-442867.2078664062</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4433,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4466,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4499,14 +4603,20 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FX.xlsx
+++ b/BackTest/2020-01-15 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-229095.7509664063</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-244501.5788664063</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-270875.0896664063</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-305722.0382664063</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-432487.0284664062</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-408606.3493664062</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-386741.1739664062</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-390656.7671664062</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,14 +2926,10 @@
         <v>-406778.3280664062</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="J77" t="n">
-        <v>62.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2963,1020 +2959,870 @@
         <v>-406769.3280664062</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="J78" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>561.6678000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>561.6839</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3823.4195</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>976.7001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>21117.9462</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-406207.6602664062</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E85" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F85" t="n">
+        <v>450</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-406657.6602664062</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7171.0056</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-406657.6602664062</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="C87" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D87" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="E87" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9450.929899999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-406657.6602664062</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8.025700000000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-406649.6345664062</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>32.1028</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-406649.6345664062</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.025700000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-406649.6345664062</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C91" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D91" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E91" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1034.6063</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-407684.2408664062</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="C92" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="D92" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="E92" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10904.3246</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-418588.5654664062</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-418579.5654664062</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C94" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D94" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E94" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.899100000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-418570.6663664062</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2803.379</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-421374.0453664062</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>543.7194</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-421374.0453664062</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C97" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D97" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E97" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-421373.9444664062</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>561.6678000000001</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>725.8856</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-420648.0588664062</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
         <v>62.1</v>
       </c>
-      <c r="J79" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>561.6839</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3823.4195</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>19.0461</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-420629.0127664062</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D100" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4320</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6386</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="J101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4169.6841</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>976.7001</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>21117.9462</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>20</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E85" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F85" t="n">
-        <v>450</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F86" t="n">
-        <v>7171.0056</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="C87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D87" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="E87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F87" t="n">
-        <v>9450.929899999999</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4993.0293</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-429942.0420664062</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E88" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>8.025700000000001</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J88" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F89" t="n">
-        <v>32.1028</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C90" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="E90" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F90" t="n">
-        <v>8.025700000000001</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1034.6063</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-407684.2408664062</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="C92" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="D92" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="E92" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10904.3246</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-418588.5654664062</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>9</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-418579.5654664062</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="J93" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C94" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D94" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E94" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8.899100000000001</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-418570.6663664062</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2803.379</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-421374.0453664062</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>543.7194</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-421374.0453664062</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C97" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D97" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E97" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.1009</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-421373.9444664062</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>725.8856</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-420648.0588664062</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="C99" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>19.0461</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-420629.0127664062</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="C100" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D100" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4320</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6386</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4169.6841</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4993.0293</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-429942.0420664062</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="J103" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4005,13 +3851,11 @@
         <v>-429488.9969664062</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4050,7 +3894,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4085,13 +3929,11 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4126,13 +3968,11 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4171,7 +4011,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4210,7 +4050,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4249,7 +4089,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4288,7 +4128,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4327,7 +4167,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4362,13 +4202,11 @@
         <v>-442972.7066664062</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>62.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4403,13 +4241,11 @@
         <v>-442972.7066664062</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4448,7 +4284,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4487,7 +4323,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4526,7 +4362,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4565,7 +4401,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4604,7 +4440,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>62.02</v>
+        <v>62.49</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4617,6 +4453,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FX.xlsx
+++ b/BackTest/2020-01-15 BackTest FX.xlsx
@@ -2233,7 +2233,7 @@
         <v>-432487.0284664062</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-408606.3493664062</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-386741.1739664062</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,10 +2629,14 @@
         <v>-389628.0148664062</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>63.1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2662,11 +2666,19 @@
         <v>-389628.0148664062</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>-390656.7671664062</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +3010,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3043,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3076,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3109,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,10 +3142,14 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>62.3</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3160,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,10 +3257,14 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J86" t="n">
+        <v>62.02</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3256,11 +3294,19 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J87" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3335,17 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3374,17 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3413,19 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3454,19 @@
         <v>-407684.2408664062</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3495,19 @@
         <v>-418588.5654664062</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J92" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3536,19 @@
         <v>-418579.5654664062</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="J93" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3577,19 @@
         <v>-418570.6663664062</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3618,17 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3559,9 +3663,13 @@
         <v>62.1</v>
       </c>
       <c r="J96" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>62.02</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3596,350 +3704,348 @@
         <v>62.1</v>
       </c>
       <c r="J97" t="n">
-        <v>62.1</v>
+        <v>62.02</v>
       </c>
       <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>725.8856</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-420648.0588664062</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>19.0461</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-420629.0127664062</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D100" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4320</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.002578200580458</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E101" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6386</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E102" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4169.6841</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-424949.0127664062</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="E103" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4993.0293</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-429942.0420664062</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="C104" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>62.49</v>
+      </c>
+      <c r="F104" t="n">
+        <v>453.0451</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-429488.9969664062</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5860.7743</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-435349.7712664062</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>725.8856</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-420648.0588664062</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>63</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>63</v>
+      </c>
+      <c r="E106" t="n">
+        <v>63</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.9366</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-435341.8346664062</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="C99" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>19.0461</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-420629.0127664062</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="C100" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D100" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4320</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6386</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="J101" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="D102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4169.6841</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="E103" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4993.0293</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-429942.0420664062</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="C104" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="F104" t="n">
-        <v>453.0451</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-429488.9969664062</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5860.7743</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-435349.7712664062</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>63</v>
-      </c>
-      <c r="C106" t="n">
-        <v>63</v>
-      </c>
-      <c r="D106" t="n">
-        <v>63</v>
-      </c>
-      <c r="E106" t="n">
-        <v>63</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7.9366</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +4077,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4007,17 +4107,11 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4046,17 +4140,11 @@
         <v>-435617.8346664062</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4085,17 +4173,11 @@
         <v>-435222.1362664062</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +4209,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4163,17 +4239,11 @@
         <v>-442980.7066664062</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +4275,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +4308,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4280,17 +4338,11 @@
         <v>-446875.1570664062</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +4374,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +4407,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4397,17 +4437,11 @@
         <v>-442867.2078664062</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4439,14 +4473,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest FX.xlsx
+++ b/BackTest/2020-01-15 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2266.7563</v>
       </c>
       <c r="G2" t="n">
-        <v>-229120.0005664063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>14138.273</v>
       </c>
       <c r="G3" t="n">
-        <v>-229120.0005664063</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9253.0759</v>
       </c>
       <c r="G4" t="n">
-        <v>-229120.0005664063</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5082.8226</v>
       </c>
       <c r="G5" t="n">
-        <v>-229120.0005664063</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>24.2496</v>
       </c>
       <c r="G6" t="n">
-        <v>-229095.7509664063</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15405.8279</v>
       </c>
       <c r="G7" t="n">
-        <v>-244501.5788664063</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>26373.5108</v>
       </c>
       <c r="G8" t="n">
-        <v>-270875.0896664063</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>349.2937</v>
       </c>
       <c r="G9" t="n">
-        <v>-271224.3833664063</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>197.7289</v>
       </c>
       <c r="G10" t="n">
-        <v>-271224.3833664063</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>34165.8977</v>
       </c>
       <c r="G11" t="n">
-        <v>-305390.2810664063</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>331.7572</v>
       </c>
       <c r="G12" t="n">
-        <v>-305722.0382664063</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>48638.4531</v>
       </c>
       <c r="G13" t="n">
-        <v>-354360.4913664063</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6652.1674</v>
       </c>
       <c r="G14" t="n">
-        <v>-354360.4913664063</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,19 @@
         <v>36218.3591</v>
       </c>
       <c r="G15" t="n">
-        <v>-390578.8504664063</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>61.01</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61.01</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +867,23 @@
         <v>9701.066000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-390578.8504664063</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="I16" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +905,23 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-390568.8504664063</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="I17" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +943,23 @@
         <v>12167.0718</v>
       </c>
       <c r="G18" t="n">
-        <v>-402735.9222664062</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>62.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,21 @@
         <v>626.1822</v>
       </c>
       <c r="G19" t="n">
-        <v>-403362.1044664062</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1017,23 @@
         <v>2001</v>
       </c>
       <c r="G20" t="n">
-        <v>-401361.1044664062</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>61.02</v>
+      </c>
+      <c r="I20" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1055,21 @@
         <v>3101.6801</v>
       </c>
       <c r="G21" t="n">
-        <v>-398259.4243664062</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1091,23 @@
         <v>17.8558</v>
       </c>
       <c r="G22" t="n">
-        <v>-398241.5685664062</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>62.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1129,21 @@
         <v>25379.5622</v>
       </c>
       <c r="G23" t="n">
-        <v>-423621.1307664062</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1165,21 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>-423601.1307664062</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1201,21 @@
         <v>1136</v>
       </c>
       <c r="G25" t="n">
-        <v>-424737.1307664062</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1237,21 @@
         <v>19307.5623</v>
       </c>
       <c r="G26" t="n">
-        <v>-405429.5684664062</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1273,21 @@
         <v>6200</v>
       </c>
       <c r="G27" t="n">
-        <v>-411629.5684664062</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1309,21 @@
         <v>1539</v>
       </c>
       <c r="G28" t="n">
-        <v>-410090.5684664062</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1345,21 @@
         <v>294</v>
       </c>
       <c r="G29" t="n">
-        <v>-410090.5684664062</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1381,21 @@
         <v>947</v>
       </c>
       <c r="G30" t="n">
-        <v>-410090.5684664062</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1417,21 @@
         <v>11712.5865</v>
       </c>
       <c r="G31" t="n">
-        <v>-421803.1549664062</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1453,21 @@
         <v>6872</v>
       </c>
       <c r="G32" t="n">
-        <v>-421803.1549664062</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1489,21 @@
         <v>8960.206</v>
       </c>
       <c r="G33" t="n">
-        <v>-421803.1549664062</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1525,21 @@
         <v>387.9776</v>
       </c>
       <c r="G34" t="n">
-        <v>-421415.1773664062</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1561,21 @@
         <v>1484</v>
       </c>
       <c r="G35" t="n">
-        <v>-422899.1773664062</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1597,21 @@
         <v>16330.9299</v>
       </c>
       <c r="G36" t="n">
-        <v>-422899.1773664062</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1633,21 @@
         <v>4819.5602</v>
       </c>
       <c r="G37" t="n">
-        <v>-427718.7375664062</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1669,21 @@
         <v>10653.2671</v>
       </c>
       <c r="G38" t="n">
-        <v>-427718.7375664062</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1705,23 @@
         <v>3388</v>
       </c>
       <c r="G39" t="n">
-        <v>-424330.7375664062</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>61.53</v>
+      </c>
+      <c r="I39" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1743,21 @@
         <v>127.2504</v>
       </c>
       <c r="G40" t="n">
-        <v>-424330.7375664062</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1779,21 @@
         <v>2527</v>
       </c>
       <c r="G41" t="n">
-        <v>-424330.7375664062</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1815,21 @@
         <v>16533.7091</v>
       </c>
       <c r="G42" t="n">
-        <v>-440864.4466664062</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1851,21 @@
         <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>-440856.4466664062</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1887,21 @@
         <v>3192.0201</v>
       </c>
       <c r="G44" t="n">
-        <v>-440856.4466664062</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1923,21 @@
         <v>5467.5568</v>
       </c>
       <c r="G45" t="n">
-        <v>-435388.8898664062</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1959,21 @@
         <v>1632.9813</v>
       </c>
       <c r="G46" t="n">
-        <v>-433755.9085664062</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1995,21 @@
         <v>1023.6839</v>
       </c>
       <c r="G47" t="n">
-        <v>-434779.5924664062</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2031,21 @@
         <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>-434779.5924664062</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2067,21 @@
         <v>902.8893</v>
       </c>
       <c r="G49" t="n">
-        <v>-435682.4817664062</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1.027617603671529</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2103,15 @@
         <v>1178.2625</v>
       </c>
       <c r="G50" t="n">
-        <v>-435682.4817664062</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2133,15 @@
         <v>158.3333</v>
       </c>
       <c r="G51" t="n">
-        <v>-435682.4817664062</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2163,15 @@
         <v>2000</v>
       </c>
       <c r="G52" t="n">
-        <v>-435682.4817664062</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2193,15 @@
         <v>3286.3374</v>
       </c>
       <c r="G53" t="n">
-        <v>-438968.8191664062</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2223,15 @@
         <v>238</v>
       </c>
       <c r="G54" t="n">
-        <v>-438730.8191664062</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2253,15 @@
         <v>3489.4106</v>
       </c>
       <c r="G55" t="n">
-        <v>-435241.4085664062</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2283,15 @@
         <v>2754.3801</v>
       </c>
       <c r="G56" t="n">
-        <v>-432487.0284664062</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2313,15 @@
         <v>6934.6747</v>
       </c>
       <c r="G57" t="n">
-        <v>-425552.3537664062</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2343,15 @@
         <v>3982.7746</v>
       </c>
       <c r="G58" t="n">
-        <v>-425552.3537664062</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2373,15 @@
         <v>2091.5401</v>
       </c>
       <c r="G59" t="n">
-        <v>-425552.3537664062</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2403,15 @@
         <v>16946.0044</v>
       </c>
       <c r="G60" t="n">
-        <v>-408606.3493664062</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2433,15 @@
         <v>21873.0994</v>
       </c>
       <c r="G61" t="n">
-        <v>-386733.2499664062</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2463,15 @@
         <v>10106.5742</v>
       </c>
       <c r="G62" t="n">
-        <v>-386733.2499664062</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2493,15 @@
         <v>7.9177</v>
       </c>
       <c r="G63" t="n">
-        <v>-386733.2499664062</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2523,15 @@
         <v>15.8354</v>
       </c>
       <c r="G64" t="n">
-        <v>-386733.2499664062</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2553,15 @@
         <v>166.2709</v>
       </c>
       <c r="G65" t="n">
-        <v>-386733.2499664062</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2583,15 @@
         <v>7.924</v>
       </c>
       <c r="G66" t="n">
-        <v>-386741.1739664062</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2613,15 @@
         <v>7.924</v>
       </c>
       <c r="G67" t="n">
-        <v>-386741.1739664062</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,22 +2643,15 @@
         <v>2886.8409</v>
       </c>
       <c r="G68" t="n">
-        <v>-389628.0148664062</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2663,26 +2673,15 @@
         <v>53826.557</v>
       </c>
       <c r="G69" t="n">
-        <v>-389628.0148664062</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2704,24 +2703,15 @@
         <v>659.164</v>
       </c>
       <c r="G70" t="n">
-        <v>-389628.0148664062</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2733,15 @@
         <v>9653.2822</v>
       </c>
       <c r="G71" t="n">
-        <v>-399281.2970664062</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2763,15 @@
         <v>8890.803</v>
       </c>
       <c r="G72" t="n">
-        <v>-390390.4940664062</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2793,15 @@
         <v>32.3499</v>
       </c>
       <c r="G73" t="n">
-        <v>-390390.4940664062</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2823,15 @@
         <v>10651.1762</v>
       </c>
       <c r="G74" t="n">
-        <v>-379739.3178664062</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2853,15 @@
         <v>10917.4493</v>
       </c>
       <c r="G75" t="n">
-        <v>-390656.7671664062</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2883,15 @@
         <v>16121.5609</v>
       </c>
       <c r="G76" t="n">
-        <v>-406778.3280664062</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2913,15 @@
         <v>1818.3325</v>
       </c>
       <c r="G77" t="n">
-        <v>-406778.3280664062</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2943,15 @@
         <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>-406769.3280664062</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2973,15 @@
         <v>561.6678000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +3003,15 @@
         <v>561.6839</v>
       </c>
       <c r="G80" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +3033,15 @@
         <v>3823.4195</v>
       </c>
       <c r="G81" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +3063,15 @@
         <v>976.7001</v>
       </c>
       <c r="G82" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,22 +3093,15 @@
         <v>21117.9462</v>
       </c>
       <c r="G83" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3176,24 +3123,15 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>-406207.6602664062</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3215,24 +3153,15 @@
         <v>450</v>
       </c>
       <c r="G85" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3254,22 +3183,15 @@
         <v>7171.0056</v>
       </c>
       <c r="G86" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J86" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3291,26 +3213,15 @@
         <v>9450.929899999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-406657.6602664062</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J87" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3332,24 +3243,15 @@
         <v>8.025700000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3371,24 +3273,15 @@
         <v>32.1028</v>
       </c>
       <c r="G89" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3410,26 +3303,15 @@
         <v>8.025700000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-406649.6345664062</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3451,26 +3333,15 @@
         <v>1034.6063</v>
       </c>
       <c r="G91" t="n">
-        <v>-407684.2408664062</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3492,26 +3363,15 @@
         <v>10904.3246</v>
       </c>
       <c r="G92" t="n">
-        <v>-418588.5654664062</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J92" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3533,26 +3393,15 @@
         <v>9</v>
       </c>
       <c r="G93" t="n">
-        <v>-418579.5654664062</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="J93" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3574,26 +3423,19 @@
         <v>8.899100000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-418570.6663664062</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>62.1</v>
       </c>
       <c r="I94" t="n">
         <v>62.1</v>
       </c>
-      <c r="J94" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3615,24 +3457,23 @@
         <v>2803.379</v>
       </c>
       <c r="G95" t="n">
-        <v>-421374.0453664062</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>62.49</v>
+      </c>
+      <c r="I95" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3654,26 +3495,23 @@
         <v>543.7194</v>
       </c>
       <c r="G96" t="n">
-        <v>-421374.0453664062</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>62.1</v>
       </c>
       <c r="I96" t="n">
         <v>62.1</v>
       </c>
-      <c r="J96" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3695,26 +3533,19 @@
         <v>0.1009</v>
       </c>
       <c r="G97" t="n">
-        <v>-421373.9444664062</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>62.1</v>
       </c>
       <c r="I97" t="n">
         <v>62.1</v>
       </c>
-      <c r="J97" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3736,26 +3567,23 @@
         <v>725.8856</v>
       </c>
       <c r="G98" t="n">
-        <v>-420648.0588664062</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>62.49</v>
       </c>
       <c r="I98" t="n">
-        <v>62.49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>62.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3777,26 +3605,23 @@
         <v>19.0461</v>
       </c>
       <c r="G99" t="n">
-        <v>-420629.0127664062</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>62.5</v>
       </c>
       <c r="I99" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>62.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3818,24 +3643,15 @@
         <v>4320</v>
       </c>
       <c r="G100" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1.002578200580458</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3857,18 +3673,15 @@
         <v>6386</v>
       </c>
       <c r="G101" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3890,18 +3703,15 @@
         <v>4169.6841</v>
       </c>
       <c r="G102" t="n">
-        <v>-424949.0127664062</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3923,18 +3733,15 @@
         <v>4993.0293</v>
       </c>
       <c r="G103" t="n">
-        <v>-429942.0420664062</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3956,22 +3763,19 @@
         <v>453.0451</v>
       </c>
       <c r="G104" t="n">
-        <v>-429488.9969664062</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>62.2</v>
       </c>
       <c r="I104" t="n">
         <v>62.2</v>
       </c>
-      <c r="J104" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3993,24 +3797,21 @@
         <v>5860.7743</v>
       </c>
       <c r="G105" t="n">
-        <v>-435349.7712664062</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4032,24 +3833,21 @@
         <v>7.9366</v>
       </c>
       <c r="G106" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4071,18 +3869,15 @@
         <v>5220.8177</v>
       </c>
       <c r="G107" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4104,18 +3899,15 @@
         <v>79.3651</v>
       </c>
       <c r="G108" t="n">
-        <v>-435341.8346664062</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4137,18 +3929,15 @@
         <v>276</v>
       </c>
       <c r="G109" t="n">
-        <v>-435617.8346664062</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4170,18 +3959,15 @@
         <v>395.6984</v>
       </c>
       <c r="G110" t="n">
-        <v>-435222.1362664062</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4203,18 +3989,15 @@
         <v>7758.5704</v>
       </c>
       <c r="G111" t="n">
-        <v>-442980.7066664062</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4236,18 +4019,15 @@
         <v>2379.9715</v>
       </c>
       <c r="G112" t="n">
-        <v>-442980.7066664062</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4269,18 +4049,15 @@
         <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>-442972.7066664062</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4302,18 +4079,15 @@
         <v>55.5562</v>
       </c>
       <c r="G114" t="n">
-        <v>-442972.7066664062</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4335,18 +4109,15 @@
         <v>3902.4504</v>
       </c>
       <c r="G115" t="n">
-        <v>-446875.1570664062</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4368,18 +4139,15 @@
         <v>4007.9492</v>
       </c>
       <c r="G116" t="n">
-        <v>-442867.2078664062</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4401,18 +4169,15 @@
         <v>15.8984</v>
       </c>
       <c r="G117" t="n">
-        <v>-442867.2078664062</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4434,18 +4199,15 @@
         <v>1585.8604</v>
       </c>
       <c r="G118" t="n">
-        <v>-442867.2078664062</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4467,18 +4229,15 @@
         <v>44.5155</v>
       </c>
       <c r="G119" t="n">
-        <v>-442867.2078664062</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
